--- a/code/healthgrades/starting_URL_lists.xlsx
+++ b/code/healthgrades/starting_URL_lists.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8A99C-D7F0-4297-A1CA-8BCD9D64B569}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E17F4D-1E79-4CE5-AAC6-90A0BF8340FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -447,7 +447,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{D0B20F67-F89A-4FAF-9C83-5D3704952E32}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{30244200-13CF-4321-AFBC-9F9C244EDF9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
